--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.13692466666667</v>
+        <v>12.79520333333333</v>
       </c>
       <c r="H2">
-        <v>51.410774</v>
+        <v>38.38560999999999</v>
       </c>
       <c r="I2">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="J2">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.376025</v>
+        <v>0.66094</v>
       </c>
       <c r="N2">
-        <v>4.128075</v>
+        <v>1.98282</v>
       </c>
       <c r="O2">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="P2">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="Q2">
-        <v>23.58083676445001</v>
+        <v>8.456861691133332</v>
       </c>
       <c r="R2">
-        <v>212.22753088005</v>
+        <v>76.11175522019998</v>
       </c>
       <c r="S2">
-        <v>0.1056153959450825</v>
+        <v>0.06049512148969336</v>
       </c>
       <c r="T2">
-        <v>0.1056153959450825</v>
+        <v>0.06049512148969336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.13692466666667</v>
+        <v>12.79520333333333</v>
       </c>
       <c r="H3">
-        <v>51.410774</v>
+        <v>38.38560999999999</v>
       </c>
       <c r="I3">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="J3">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.250698333333334</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N3">
-        <v>6.752095000000001</v>
+        <v>6.752095</v>
       </c>
       <c r="O3">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="P3">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="Q3">
-        <v>38.57004778572556</v>
+        <v>28.79814281699444</v>
       </c>
       <c r="R3">
-        <v>347.13043007153</v>
+        <v>259.18328535295</v>
       </c>
       <c r="S3">
-        <v>0.172750055869579</v>
+        <v>0.2060039778370962</v>
       </c>
       <c r="T3">
-        <v>0.172750055869579</v>
+        <v>0.2060039778370962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.13692466666667</v>
+        <v>12.79520333333333</v>
       </c>
       <c r="H4">
-        <v>51.410774</v>
+        <v>38.38560999999999</v>
       </c>
       <c r="I4">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="J4">
-        <v>0.538539545062134</v>
+        <v>0.4115337443623667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.389714666666666</v>
+        <v>1.584577333333334</v>
       </c>
       <c r="N4">
-        <v>10.169144</v>
+        <v>4.753732</v>
       </c>
       <c r="O4">
-        <v>0.4831104709635667</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="P4">
-        <v>0.4831104709635668</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="Q4">
-        <v>58.08928488416178</v>
+        <v>20.27498917739111</v>
       </c>
       <c r="R4">
-        <v>522.803563957456</v>
+        <v>182.47490259652</v>
       </c>
       <c r="S4">
-        <v>0.2601740932474725</v>
+        <v>0.1450346450355771</v>
       </c>
       <c r="T4">
-        <v>0.2601740932474725</v>
+        <v>0.1450346450355771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.659512</v>
       </c>
       <c r="I5">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="J5">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.376025</v>
+        <v>0.66094</v>
       </c>
       <c r="N5">
-        <v>4.128075</v>
+        <v>1.98282</v>
       </c>
       <c r="O5">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="P5">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="Q5">
-        <v>15.8974516666</v>
+        <v>7.635952620426666</v>
       </c>
       <c r="R5">
-        <v>143.0770649994</v>
+        <v>68.72357358383999</v>
       </c>
       <c r="S5">
-        <v>0.07120254760496969</v>
+        <v>0.05462284927121089</v>
       </c>
       <c r="T5">
-        <v>0.0712025476049697</v>
+        <v>0.05462284927121089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.659512</v>
       </c>
       <c r="I6">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="J6">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.250698333333334</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N6">
-        <v>6.752095000000001</v>
+        <v>6.752095</v>
       </c>
       <c r="O6">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="P6">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="Q6">
-        <v>26.00270196418223</v>
+        <v>26.00270196418222</v>
       </c>
       <c r="R6">
         <v>234.02431767764</v>
       </c>
       <c r="S6">
-        <v>0.116462604402967</v>
+        <v>0.1860071350147248</v>
       </c>
       <c r="T6">
-        <v>0.116462604402967</v>
+        <v>0.1860071350147248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.659512</v>
       </c>
       <c r="I7">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="J7">
-        <v>0.3630662674822902</v>
+        <v>0.3715860904941301</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.389714666666666</v>
+        <v>1.584577333333334</v>
       </c>
       <c r="N7">
-        <v>10.169144</v>
+        <v>4.753732</v>
       </c>
       <c r="O7">
-        <v>0.4831104709635667</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="P7">
-        <v>0.4831104709635668</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="Q7">
-        <v>39.16195205530311</v>
+        <v>18.30689236653156</v>
       </c>
       <c r="R7">
-        <v>352.4575684977279</v>
+        <v>164.762031298784</v>
       </c>
       <c r="S7">
-        <v>0.1754011154743535</v>
+        <v>0.1309561062081943</v>
       </c>
       <c r="T7">
-        <v>0.1754011154743535</v>
+        <v>0.1309561062081943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.131012</v>
+        <v>6.743130666666667</v>
       </c>
       <c r="H8">
-        <v>9.393036</v>
+        <v>20.229392</v>
       </c>
       <c r="I8">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="J8">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.376025</v>
+        <v>0.66094</v>
       </c>
       <c r="N8">
-        <v>4.128075</v>
+        <v>1.98282</v>
       </c>
       <c r="O8">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="P8">
-        <v>0.1961144671983135</v>
+        <v>0.1469991764185096</v>
       </c>
       <c r="Q8">
-        <v>4.3083507873</v>
+        <v>4.456804782826667</v>
       </c>
       <c r="R8">
-        <v>38.7751570857</v>
+        <v>40.11124304544</v>
       </c>
       <c r="S8">
-        <v>0.01929652364826124</v>
+        <v>0.03188120565760531</v>
       </c>
       <c r="T8">
-        <v>0.01929652364826124</v>
+        <v>0.03188120565760531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.131012</v>
+        <v>6.743130666666667</v>
       </c>
       <c r="H9">
-        <v>9.393036</v>
+        <v>20.229392</v>
       </c>
       <c r="I9">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="J9">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.250698333333334</v>
+        <v>2.250698333333333</v>
       </c>
       <c r="N9">
-        <v>6.752095000000001</v>
+        <v>6.752095</v>
       </c>
       <c r="O9">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="P9">
-        <v>0.3207750618381198</v>
+        <v>0.5005761511884772</v>
       </c>
       <c r="Q9">
-        <v>7.046963490046668</v>
+        <v>15.17675295291555</v>
       </c>
       <c r="R9">
-        <v>63.42267141042001</v>
+        <v>136.59077657624</v>
       </c>
       <c r="S9">
-        <v>0.0315624015655739</v>
+        <v>0.1085650383366562</v>
       </c>
       <c r="T9">
-        <v>0.0315624015655739</v>
+        <v>0.1085650383366562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.131012</v>
+        <v>6.743130666666667</v>
       </c>
       <c r="H10">
-        <v>9.393036</v>
+        <v>20.229392</v>
       </c>
       <c r="I10">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="J10">
-        <v>0.09839418745557586</v>
+        <v>0.2168801651435032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.389714666666666</v>
+        <v>1.584577333333334</v>
       </c>
       <c r="N10">
-        <v>10.169144</v>
+        <v>4.753732</v>
       </c>
       <c r="O10">
-        <v>0.4831104709635667</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="P10">
-        <v>0.4831104709635668</v>
+        <v>0.3524246723930132</v>
       </c>
       <c r="Q10">
-        <v>10.61323729790933</v>
+        <v>10.68501201010489</v>
       </c>
       <c r="R10">
-        <v>95.519135681184</v>
+        <v>96.165108090944</v>
       </c>
       <c r="S10">
-        <v>0.04753526224174073</v>
+        <v>0.0764339211492417</v>
       </c>
       <c r="T10">
-        <v>0.04753526224174073</v>
+        <v>0.0764339211492417</v>
       </c>
     </row>
   </sheetData>
